--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Col3a1-Mag.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Col3a1-Mag.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,57 +531,57 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.78274503477822</v>
+        <v>7.822558333333333</v>
       </c>
       <c r="H2">
-        <v>1.78274503477822</v>
+        <v>23.467675</v>
       </c>
       <c r="I2">
-        <v>0.0002857192704207807</v>
+        <v>0.001247993910151231</v>
       </c>
       <c r="J2">
-        <v>0.0002857192704207807</v>
+        <v>0.001247993910151231</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.191506819254052</v>
+        <v>0.3133113333333333</v>
       </c>
       <c r="N2">
-        <v>0.191506819254052</v>
+        <v>0.939934</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.4010297802586483</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.4010297802586483</v>
       </c>
       <c r="Q2">
-        <v>0.3414078311513312</v>
+        <v>2.450896181494445</v>
       </c>
       <c r="R2">
-        <v>0.3414078311513312</v>
+        <v>22.05806563345</v>
       </c>
       <c r="S2">
-        <v>0.0002857192704207807</v>
+        <v>0.0005004827235520794</v>
       </c>
       <c r="T2">
-        <v>0.0002857192704207807</v>
+        <v>0.0005004827235520794</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6033.69616181804</v>
+        <v>7.822558333333333</v>
       </c>
       <c r="H3">
-        <v>6033.69616181804</v>
+        <v>23.467675</v>
       </c>
       <c r="I3">
-        <v>0.9670161642098082</v>
+        <v>0.001247993910151231</v>
       </c>
       <c r="J3">
-        <v>0.9670161642098082</v>
+        <v>0.001247993910151231</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.191506819254052</v>
+        <v>0.4679556666666667</v>
       </c>
       <c r="N3">
-        <v>0.191506819254052</v>
+        <v>1.403867</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.5989702197413518</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.5989702197413518</v>
       </c>
       <c r="Q3">
-        <v>1155.493960295155</v>
+        <v>3.660610499913889</v>
       </c>
       <c r="R3">
-        <v>1155.493960295155</v>
+        <v>32.945494499225</v>
       </c>
       <c r="S3">
-        <v>0.9670161642098082</v>
+        <v>0.0007475111865991517</v>
       </c>
       <c r="T3">
-        <v>0.9670161642098082</v>
+        <v>0.0007475111865991517</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -655,57 +655,57 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.649551861772563</v>
+        <v>6037.773437333333</v>
       </c>
       <c r="H4">
-        <v>0.649551861772563</v>
+        <v>18113.320312</v>
       </c>
       <c r="I4">
-        <v>0.0001041032118590107</v>
+        <v>0.9632532171165058</v>
       </c>
       <c r="J4">
-        <v>0.0001041032118590107</v>
+        <v>0.9632532171165058</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.191506819254052</v>
+        <v>0.3133113333333333</v>
       </c>
       <c r="N4">
-        <v>0.191506819254052</v>
+        <v>0.939934</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.4010297802586483</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.4010297802586483</v>
       </c>
       <c r="Q4">
-        <v>0.1243936109886112</v>
+        <v>1891.70284601549</v>
       </c>
       <c r="R4">
-        <v>0.1243936109886112</v>
+        <v>17025.32561413941</v>
       </c>
       <c r="S4">
-        <v>0.0001041032118590107</v>
+        <v>0.3862932259936683</v>
       </c>
       <c r="T4">
-        <v>0.0001041032118590107</v>
+        <v>0.3862932259936683</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,303 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>6037.773437333333</v>
+      </c>
+      <c r="H5">
+        <v>18113.320312</v>
+      </c>
+      <c r="I5">
+        <v>0.9632532171165058</v>
+      </c>
+      <c r="J5">
+        <v>0.9632532171165058</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.4679556666666667</v>
+      </c>
+      <c r="N5">
+        <v>1.403867</v>
+      </c>
+      <c r="O5">
+        <v>0.5989702197413518</v>
+      </c>
+      <c r="P5">
+        <v>0.5989702197413518</v>
+      </c>
+      <c r="Q5">
+        <v>2825.410294049611</v>
+      </c>
+      <c r="R5">
+        <v>25428.6926464465</v>
+      </c>
+      <c r="S5">
+        <v>0.5769599911228375</v>
+      </c>
+      <c r="T5">
+        <v>0.5769599911228375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>203.37030576412</v>
-      </c>
-      <c r="H5">
-        <v>203.37030576412</v>
-      </c>
-      <c r="I5">
-        <v>0.03259401330791207</v>
-      </c>
-      <c r="J5">
-        <v>0.03259401330791207</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.191506819254052</v>
-      </c>
-      <c r="N5">
-        <v>0.191506819254052</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>38.94680038761062</v>
-      </c>
-      <c r="R5">
-        <v>38.94680038761062</v>
-      </c>
-      <c r="S5">
-        <v>0.03259401330791207</v>
-      </c>
-      <c r="T5">
-        <v>0.03259401330791207</v>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.018774</v>
+      </c>
+      <c r="H6">
+        <v>3.056322</v>
+      </c>
+      <c r="I6">
+        <v>0.0001625329839219791</v>
+      </c>
+      <c r="J6">
+        <v>0.0001625329839219791</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.3133113333333333</v>
+      </c>
+      <c r="N6">
+        <v>0.939934</v>
+      </c>
+      <c r="O6">
+        <v>0.4010297802586483</v>
+      </c>
+      <c r="P6">
+        <v>0.4010297802586483</v>
+      </c>
+      <c r="Q6">
+        <v>0.3191934403053333</v>
+      </c>
+      <c r="R6">
+        <v>2.872740962748</v>
+      </c>
+      <c r="S6">
+        <v>6.518056682701368E-05</v>
+      </c>
+      <c r="T6">
+        <v>6.518056682701368E-05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.018774</v>
+      </c>
+      <c r="H7">
+        <v>3.056322</v>
+      </c>
+      <c r="I7">
+        <v>0.0001625329839219791</v>
+      </c>
+      <c r="J7">
+        <v>0.0001625329839219791</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.4679556666666667</v>
+      </c>
+      <c r="N7">
+        <v>1.403867</v>
+      </c>
+      <c r="O7">
+        <v>0.5989702197413518</v>
+      </c>
+      <c r="P7">
+        <v>0.5989702197413518</v>
+      </c>
+      <c r="Q7">
+        <v>0.4767410663526666</v>
+      </c>
+      <c r="R7">
+        <v>4.290669597173999</v>
+      </c>
+      <c r="S7">
+        <v>9.73524170949654E-05</v>
+      </c>
+      <c r="T7">
+        <v>9.73524170949654E-05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>221.4914043333333</v>
+      </c>
+      <c r="H8">
+        <v>664.474213</v>
+      </c>
+      <c r="I8">
+        <v>0.03533625598942085</v>
+      </c>
+      <c r="J8">
+        <v>0.03533625598942085</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.3133113333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.939934</v>
+      </c>
+      <c r="O8">
+        <v>0.4010297802586483</v>
+      </c>
+      <c r="P8">
+        <v>0.4010297802586483</v>
+      </c>
+      <c r="Q8">
+        <v>69.39576721354911</v>
+      </c>
+      <c r="R8">
+        <v>624.561904921942</v>
+      </c>
+      <c r="S8">
+        <v>0.01417089097460079</v>
+      </c>
+      <c r="T8">
+        <v>0.01417089097460079</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>221.4914043333333</v>
+      </c>
+      <c r="H9">
+        <v>664.474213</v>
+      </c>
+      <c r="I9">
+        <v>0.03533625598942085</v>
+      </c>
+      <c r="J9">
+        <v>0.03533625598942085</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.4679556666666667</v>
+      </c>
+      <c r="N9">
+        <v>1.403867</v>
+      </c>
+      <c r="O9">
+        <v>0.5989702197413518</v>
+      </c>
+      <c r="P9">
+        <v>0.5989702197413518</v>
+      </c>
+      <c r="Q9">
+        <v>103.6481577757412</v>
+      </c>
+      <c r="R9">
+        <v>932.8334199816709</v>
+      </c>
+      <c r="S9">
+        <v>0.02116536501482006</v>
+      </c>
+      <c r="T9">
+        <v>0.02116536501482006</v>
       </c>
     </row>
   </sheetData>
